--- a/example_data/Summary/before/Individual Values/Indv Zscore_before_.xlsx
+++ b/example_data/Summary/before/Individual Values/Indv Zscore_before_.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,225 +438,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.553440175145036</v>
+        <v>-3.12761193096796</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.406551121524588</v>
+        <v>-1.576894612614322</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.553440175145036</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-1.553440175145036</v>
+        <v>-3.12761193096796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.985659938882617</v>
+        <v>0.8717038838049787</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.50611748962602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.406551121524588</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5.406551121524588</v>
+        <v>0.8717038838049787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.374480118157525</v>
+        <v>4.056289150125991</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.888166592888785</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.985659938882617</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4.985659938882617</v>
+        <v>4.056289150125991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.296466929781257</v>
+        <v>-0.2762145066277487</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.711554175502007</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.374480118157525</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.374480118157525</v>
+        <v>-0.2762145066277487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1906765380126443</v>
+        <v>-2.230242017480913</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.609074750577568</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-2.296466929781257</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.296466929781257</v>
+        <v>-2.230242017480913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.928456265100693</v>
+        <v>3.320360304784296</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.728157879409881</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1906765380126443</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.1906765380126443</v>
+        <v>3.320360304784296</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.79097773170048</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1936270551927749</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-5.928456265100693</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-5.928456265100693</v>
+        <v>37.79097773170048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.880702746540127</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.2873697163850113</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.880702746540127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.097017414504531</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.645748286455305</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.097017414504531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5991691228953911</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-3.400197628743526</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.5991691228953911</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.994567819732491</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.648919447860626</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4.994567819732491</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.107298701510681</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2187594424095324</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.576894612614322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.467034048644931</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.3608533422545312</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.50611748962602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1290728356575616</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.212505787094694</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.888166592888785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-3.617080271037603</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6125470795995611</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.711554175502007</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.662821189550995</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.609074750577568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.472346950526884</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.728157879409881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.750146174935517</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1936270551927749</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.980613468947894</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.2873697163850113</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-4.145855701830468</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.107298701510681</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9605043536095467</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7.467034048644931</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.26182187665075</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1290728356575616</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.273943051291628</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.617080271037603</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.109958480715644</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.662821189550995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17.54773032576275</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5.472346950526884</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.490479793720927</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.750146174935517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.993497932963441</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.980613468947894</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.9309290511245454</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.645748286455305</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.127505684705475</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.400197628743526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8537517853166063</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.145855701830468</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11.18792730793125</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9605043536095467</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.523824933422827</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.648919447860626</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.853828173504513</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>9.26182187665075</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.086896279551239</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.273943051291628</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.948596875456285</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4.109958480715644</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>17.54773032576275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.490479793720927</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.993497932963441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.9309290511245454</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.127505684705475</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8537517853166063</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>11.18792730793125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.523824933422827</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6.853828173504513</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2187594424095324</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.3608533422545312</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>7.212505787094694</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6125470795995611</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.948596875456285</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +1368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,225 +1379,923 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.553440175145036</v>
+        <v>-3.12761193096796</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.406551121524587</v>
+        <v>-1.576894612614322</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.553440175145036</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-1.553440175145036</v>
+        <v>-3.12761193096796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.985659938882617</v>
+        <v>0.871703883804979</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.50611748962602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.406551121524587</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5.406551121524587</v>
+        <v>0.871703883804979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.374480118157525</v>
+        <v>4.056289150125991</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.888166592888785</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.985659938882617</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4.985659938882617</v>
+        <v>4.056289150125991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.296466929781256</v>
+        <v>-0.2762145066277487</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.711554175502006</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.374480118157525</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.374480118157525</v>
+        <v>-0.2762145066277487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1906765380126444</v>
+        <v>-2.230242017480913</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.609074750577568</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-2.296466929781256</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.296466929781256</v>
+        <v>-2.230242017480913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.928456265100692</v>
+        <v>3.320360304784296</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.728157879409881</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1906765380126444</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.1906765380126444</v>
+        <v>3.320360304784296</v>
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.79097773170048</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1936270551927748</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-5.928456265100692</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-5.928456265100692</v>
+        <v>37.79097773170048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.880702746540128</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.2873697163850114</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.880702746540128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.097017414504531</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.645748286455304</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.097017414504531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5991691228953913</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-3.400197628743526</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.5991691228953913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.994567819732491</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.648919447860626</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4.994567819732491</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.10729870151068</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2187594424095323</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.576894612614322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.467034048644932</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.3608533422545311</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.50611748962602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1290728356575616</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.212505787094694</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.888166592888785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-3.617080271037604</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6125470795995615</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.711554175502006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.662821189550995</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.609074750577568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.472346950526884</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.728157879409881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.750146174935517</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1936270551927748</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.9806134689478945</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.2873697163850114</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-4.145855701830468</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.10729870151068</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9605043536095467</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7.467034048644932</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.26182187665075</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1290728356575616</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.273943051291627</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.617080271037604</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.109958480715644</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.662821189550995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17.54773032576275</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5.472346950526884</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.490479793720927</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.750146174935517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.993497932963441</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.9806134689478945</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.9309290511245456</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.645748286455304</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.127505684705475</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.400197628743526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8537517853166063</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.145855701830468</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11.18792730793125</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9605043536095467</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5238249334228268</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.648919447860626</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.853828173504513</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>9.26182187665075</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.086896279551239</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.273943051291627</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.948596875456286</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4.109958480715644</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>17.54773032576275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.490479793720927</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.993497932963441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.9309290511245456</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.127505684705475</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8537517853166063</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>11.18792730793125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5238249334228268</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6.853828173504513</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2187594424095323</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.3608533422545311</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>7.212505787094694</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6125470795995615</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.948596875456286</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,239 +2320,1019 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 6</t>
+          <t>Animal ID_Event 10</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Event 6</t>
+          <t>Event 10</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Event 8</t>
+          <t>Animal ID_Event 15</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Event 8</t>
+          <t>Event 15</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Animal ID_Group 1</t>
+          <t>Animal ID_Group 3</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Group 1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Animal ID_Group 2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Group 2</t>
+          <t>Group 3</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.553440175145036</v>
+        <v>-3.127611930967959</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.406551121524589</v>
+        <v>-1.576894612614322</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-1.553440175145036</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>-1.553440175145036</v>
+        <v>-3.127611930967959</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.985659938882616</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>0.871703883804979</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.50611748962602</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.406551121524589</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5.406551121524589</v>
+        <v>0.871703883804979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.374480118157526</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>4.056289150125991</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.888166592888786</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.985659938882616</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4.985659938882616</v>
+        <v>4.056289150125991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.296466929781256</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>-0.2762145066277488</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3.711554175502006</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.374480118157526</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3.374480118157526</v>
+        <v>-0.2762145066277488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1906765380126444</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>-2.230242017480913</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.609074750577568</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-2.296466929781256</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>-2.296466929781256</v>
+        <v>-2.230242017480913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.928456265100693</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+        <v>3.320360304784296</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2.728157879409881</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1906765380126444</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>-0.1906765380126444</v>
+        <v>3.320360304784296</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>37.79097773170048</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.1936270551927748</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>210</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-5.928456265100693</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>-5.928456265100693</v>
+        <v>37.79097773170048</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.880702746540127</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.2873697163850112</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-2.880702746540127</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.097017414504531</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>-2.645748286455303</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.097017414504531</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.5991691228953913</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>-3.400197628743525</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.5991691228953913</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4.994567819732492</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.648919447860626</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4.994567819732492</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.107298701510681</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2187594424095324</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.576894612614322</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7.467034048644929</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.360853342254531</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.50611748962602</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1290728356575616</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7.212505787094694</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-4.888166592888786</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-3.617080271037603</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6125470795995613</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.711554175502006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2.662821189550995</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4.609074750577568</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5.472346950526885</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.728157879409881</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.750146174935517</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1936270551927748</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.9806134689478943</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.2873697163850112</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-4.145855701830468</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.107298701510681</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9605043536095468</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7.467034048644929</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.261821876650751</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1290728356575616</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2.273943051291627</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-3.617080271037603</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>4.109958480715644</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-2.662821189550995</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17.54773032576276</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>5.472346950526885</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.490479793720928</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.750146174935517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.993497932963441</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.9806134689478943</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.9309290511245455</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-2.645748286455303</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-3.127505684705475</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.400197628743525</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8537517853166062</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-4.145855701830468</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>11.18792730793125</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9605043536095468</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5238249334228269</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.648919447860626</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6.853828173504513</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>9.261821876650751</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.086896279551239</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>2.273943051291627</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.948596875456286</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>4.109958480715644</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>17.54773032576276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.490479793720928</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>1.993497932963441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.9309290511245455</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr"/>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-3.127505684705475</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr"/>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.8537517853166062</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr"/>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>11.18792730793125</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr"/>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.5238249334228269</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr"/>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>6.853828173504513</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2187594424095324</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.360853342254531</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr"/>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>7.212505787094694</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr"/>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.6125470795995613</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr"/>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>-1.948596875456286</v>
       </c>
     </row>
   </sheetData>
